--- a/biology/Zoologie/Gavinia/Gavinia.xlsx
+++ b/biology/Zoologie/Gavinia/Gavinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gavinia syntrips
 Gavinia est un genre éteint de poissons à membres charnus de la famille des Miguashaiidae et de la sous-classe des Actinistia (cette dernière incluant également les cœlacanthes).
-Gavinia syntrips est la seule espèce rattachée au genre. Elle a vécu en Australie au Dévonien moyen (Givétien) il y a environ 385 Ma (millions d'années)[1].
+Gavinia syntrips est la seule espèce rattachée au genre. Elle a vécu en Australie au Dévonien moyen (Givétien) il y a environ 385 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Gavinia honore le paléontologue australien Gavin Young.
 </t>
@@ -544,7 +558,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Classification phylogénétique, les genres Gavinia et Miguashaia sont deux groupes frères qui forment ensemble le taxon des Miguashaiidae.
 </t>
